--- a/posesiones/1486014.xlsx
+++ b/posesiones/1486014.xlsx
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>26</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>6</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2275,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>8</v>
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>19</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>9</v>
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>19</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>27</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>32</v>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>17</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3228,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>25</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36">
         <v>11</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3522,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>4</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>5</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>22</v>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>21</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4069,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>9</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4172,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R51">
         <v>10</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4275,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R53">
         <v>12</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R55">
         <v>21</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57">
         <v>27</v>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4622,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R60">
         <v>21</v>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4863,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>16</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5019,7 +5019,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R68">
         <v>20</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5169,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R71">
         <v>20</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R73">
         <v>18</v>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5372,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75">
         <v>16</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5472,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R77">
         <v>21</v>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R78">
         <v>21</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R80">
         <v>7</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5728,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R82">
         <v>26</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5831,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R84">
         <v>4</v>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R86">
         <v>4</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6078,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R89">
         <v>26</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6181,7 +6181,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R91">
         <v>7</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6513,10 +6513,10 @@
         <v>1</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6704,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6745,10 +6745,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6798,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R104">
         <v>24</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6945,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R107">
         <v>28</v>
@@ -6998,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R108">
         <v>20</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7101,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R110">
         <v>6</v>
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7204,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R112">
         <v>10</v>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7307,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R114">
         <v>5</v>
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7548,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R119">
         <v>19</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7651,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R121">
         <v>18</v>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R127">
         <v>18</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8042,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R129">
         <v>22</v>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8145,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R131">
         <v>12</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8336,7 +8336,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R135">
         <v>6</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8436,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R137">
         <v>19</v>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8536,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R139">
         <v>21</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8636,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R141">
         <v>26</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R142">
         <v>27</v>
@@ -8742,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R143">
         <v>14</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R145">
         <v>23</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9133,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R151">
         <v>16</v>
@@ -9183,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9233,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R153">
         <v>12</v>
@@ -9283,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9333,7 +9333,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R155">
         <v>6</v>
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9524,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9574,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R160">
         <v>0</v>
@@ -9627,7 +9627,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R161">
         <v>9</v>
@@ -9680,7 +9680,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R162">
         <v>19</v>
@@ -9733,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R163">
         <v>22</v>
@@ -9783,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9830,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R169">
         <v>18</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10262,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R174">
         <v>34</v>
@@ -10315,7 +10315,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R175">
         <v>17</v>
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10418,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R177">
         <v>22</v>
@@ -10468,7 +10468,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10753,7 +10753,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R184">
         <v>8</v>
@@ -10803,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10850,7 +10850,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11088,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R191">
         <v>11</v>
@@ -11141,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R192">
         <v>6</v>
@@ -11191,7 +11191,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11241,7 +11241,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R194">
         <v>21</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11341,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11438,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11488,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R199">
         <v>26</v>
@@ -11538,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11632,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11773,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11870,7 +11870,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R207">
         <v>31</v>
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12105,7 +12105,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12340,7 +12340,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12481,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12525,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12619,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12669,7 +12669,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R224">
         <v>3</v>
@@ -12722,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R225">
         <v>0</v>
@@ -12766,10 +12766,10 @@
         <v>1</v>
       </c>
       <c r="P226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q226">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12863,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12957,7 +12957,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13280,10 +13280,10 @@
         <v>1</v>
       </c>
       <c r="P237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13333,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R238">
         <v>15</v>
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13430,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13527,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R242">
         <v>15</v>
@@ -13577,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13624,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13671,7 +13671,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13721,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R246">
         <v>13</v>
@@ -13774,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13824,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R248">
         <v>19</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13927,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R250">
         <v>12</v>
@@ -13977,7 +13977,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14024,7 +14024,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14124,7 +14124,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R254">
         <v>23</v>
@@ -14177,7 +14177,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R255">
         <v>23</v>
@@ -14227,7 +14227,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14277,7 +14277,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R257">
         <v>15</v>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14380,7 +14380,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R259">
         <v>10</v>
@@ -14430,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14480,7 +14480,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R261">
         <v>15</v>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14580,7 +14580,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R263">
         <v>16</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14730,7 +14730,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R266">
         <v>13</v>
@@ -14783,7 +14783,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R267">
         <v>13</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15071,7 +15071,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R273">
         <v>0</v>
@@ -15124,7 +15124,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R274">
         <v>11</v>
@@ -15174,7 +15174,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15224,7 +15224,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R276">
         <v>24</v>
@@ -15274,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15321,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15415,7 +15415,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15462,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15512,7 +15512,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15562,7 +15562,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R283">
         <v>30</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15662,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15712,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15762,7 +15762,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R287">
         <v>14</v>
@@ -15815,7 +15815,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R288">
         <v>14</v>
@@ -15868,7 +15868,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15918,7 +15918,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R290">
         <v>5</v>
@@ -15968,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16018,7 +16018,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16065,7 +16065,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16115,7 +16115,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R294">
         <v>6</v>
@@ -16165,7 +16165,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16309,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16356,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16497,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16544,7 +16544,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16594,7 +16594,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R304">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R305">
         <v>15</v>
@@ -16700,7 +16700,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16750,7 +16750,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R307">
         <v>13</v>
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16847,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16894,7 +16894,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16941,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16988,7 +16988,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17035,7 +17035,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17085,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R314">
         <v>35</v>
@@ -17138,7 +17138,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R315">
         <v>21</v>
@@ -17191,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R316">
         <v>22</v>
@@ -17244,7 +17244,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R317">
         <v>17</v>
@@ -17294,7 +17294,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17341,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17388,7 +17388,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17438,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R321">
         <v>17</v>
@@ -17491,7 +17491,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17541,7 +17541,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R323">
         <v>22</v>
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17644,7 +17644,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R325">
         <v>10</v>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17741,7 +17741,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17788,7 +17788,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17835,7 +17835,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17932,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R331">
         <v>12</v>
@@ -17982,7 +17982,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18029,7 +18029,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18079,7 +18079,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R334">
         <v>8</v>
@@ -18132,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18179,7 +18179,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18229,7 +18229,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18279,7 +18279,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R338">
         <v>21</v>
@@ -18332,7 +18332,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R339">
         <v>9</v>
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18435,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R341">
         <v>15</v>
@@ -18485,7 +18485,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18535,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R343">
         <v>5</v>
@@ -18585,7 +18585,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18635,7 +18635,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R345">
         <v>27</v>
@@ -18691,7 +18691,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R346">
         <v>4</v>
@@ -18735,10 +18735,10 @@
         <v>1</v>
       </c>
       <c r="P347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18785,7 +18785,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18832,7 +18832,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18873,10 +18873,10 @@
         <v>1</v>
       </c>
       <c r="P350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q350">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18926,7 +18926,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R351">
         <v>23</v>
@@ -18979,7 +18979,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R352">
         <v>31</v>
@@ -19029,7 +19029,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19079,7 +19079,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R354">
         <v>4</v>
@@ -19129,7 +19129,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19176,7 +19176,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19223,7 +19223,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19270,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19317,7 +19317,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19461,7 +19461,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R362">
         <v>0</v>
@@ -19508,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19558,7 +19558,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R364">
         <v>19</v>
@@ -19611,7 +19611,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R365">
         <v>27</v>
@@ -19664,7 +19664,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19714,7 +19714,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R367">
         <v>10</v>
@@ -19764,7 +19764,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19811,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19861,7 +19861,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19911,7 +19911,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R371">
         <v>23</v>
@@ -19964,7 +19964,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20011,7 +20011,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20061,7 +20061,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20111,7 +20111,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R375">
         <v>6</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20208,7 +20208,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R377">
         <v>21</v>
@@ -20261,7 +20261,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20311,7 +20311,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R379">
         <v>6</v>
@@ -20361,7 +20361,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20408,7 +20408,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20455,7 +20455,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20505,7 +20505,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R383">
         <v>21</v>
@@ -20558,7 +20558,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R384">
         <v>26</v>
@@ -20608,7 +20608,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20655,7 +20655,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20705,7 +20705,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20752,7 +20752,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20799,7 +20799,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20846,7 +20846,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20893,7 +20893,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20943,7 +20943,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R392">
         <v>29</v>
@@ -20996,7 +20996,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R393">
         <v>13</v>
@@ -21046,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21096,7 +21096,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R395">
         <v>5</v>
@@ -21146,7 +21146,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21193,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21240,7 +21240,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21287,7 +21287,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21337,7 +21337,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21387,7 +21387,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R401">
         <v>27</v>
@@ -21440,7 +21440,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R402">
         <v>18</v>
@@ -21493,7 +21493,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21543,7 +21543,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R404">
         <v>4</v>
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21643,7 +21643,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R406">
         <v>8</v>
@@ -21696,7 +21696,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R407">
         <v>21</v>
@@ -21746,7 +21746,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21793,7 +21793,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21840,7 +21840,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21887,7 +21887,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21937,7 +21937,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R412">
         <v>27</v>
@@ -21990,7 +21990,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22040,7 +22040,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R414">
         <v>22</v>
@@ -22093,7 +22093,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R415">
         <v>14</v>
@@ -22146,7 +22146,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22196,7 +22196,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R417">
         <v>23</v>
@@ -22246,7 +22246,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22293,7 +22293,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22340,7 +22340,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22387,7 +22387,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22434,7 +22434,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22481,7 +22481,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22528,7 +22528,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22575,7 +22575,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22622,7 +22622,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22672,7 +22672,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R427">
         <v>27</v>
@@ -22722,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22769,7 +22769,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22819,7 +22819,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R430">
         <v>14</v>
@@ -22869,7 +22869,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22919,7 +22919,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R432">
         <v>17</v>
@@ -22966,7 +22966,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23013,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23060,7 +23060,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23107,7 +23107,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23160,7 +23160,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R437">
         <v>7</v>
@@ -23210,7 +23210,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23254,7 +23254,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23304,7 +23304,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R440">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23401,7 +23401,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23451,7 +23451,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R443">
         <v>15</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23551,7 +23551,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R445">
         <v>12</v>
@@ -23601,7 +23601,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R447">
         <v>24</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23754,7 +23754,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R449">
         <v>7</v>
@@ -23804,7 +23804,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23851,7 +23851,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23901,7 +23901,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R452">
         <v>0</v>
@@ -23954,7 +23954,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24004,7 +24004,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R454">
         <v>11</v>
@@ -24057,7 +24057,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R455">
         <v>23</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24151,7 +24151,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24198,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24245,7 +24245,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24295,7 +24295,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R460">
         <v>11</v>
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24389,7 +24389,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24436,7 +24436,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24483,7 +24483,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24577,7 +24577,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24674,7 +24674,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R468">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24774,7 +24774,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R470">
         <v>3</v>
@@ -24818,10 +24818,10 @@
         <v>1</v>
       </c>
       <c r="P471" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q471">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24862,7 +24862,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
